--- a/project/用户故事.xlsx
+++ b/project/用户故事.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905D15CE-2374-406E-A60A-782A128357E9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F45F84-A3D7-4365-9707-816C984085D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="77">
   <si>
     <t>引用编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,6 +319,10 @@
   </si>
   <si>
     <t>杜曼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理想时间（h）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -362,12 +366,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -648,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -659,9 +669,10 @@
     <col min="1" max="2" width="10.08203125" customWidth="1"/>
     <col min="3" max="3" width="12.58203125" customWidth="1"/>
     <col min="4" max="4" width="84.08203125" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,8 +688,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -694,8 +708,11 @@
       <c r="E2" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -711,8 +728,11 @@
       <c r="E3" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -728,8 +748,11 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -745,8 +768,11 @@
       <c r="E5" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -762,8 +788,11 @@
       <c r="E6" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -779,8 +808,11 @@
       <c r="E7" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -796,8 +828,11 @@
       <c r="E8" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -813,8 +848,11 @@
       <c r="E9" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -830,8 +868,11 @@
       <c r="E10" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -847,8 +888,11 @@
       <c r="E11" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -864,8 +908,11 @@
       <c r="E12" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -881,8 +928,11 @@
       <c r="E13" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -898,8 +948,11 @@
       <c r="E14" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -915,8 +968,11 @@
       <c r="E15" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -932,8 +988,11 @@
       <c r="E16" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -949,8 +1008,11 @@
       <c r="E17" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -966,8 +1028,11 @@
       <c r="E18" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -983,8 +1048,11 @@
       <c r="E19" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1000,8 +1068,11 @@
       <c r="E20" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1016,6 +1087,9 @@
       </c>
       <c r="E21" s="1">
         <v>16</v>
+      </c>
+      <c r="F21" s="3">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1029,7 +1103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A06BE1-3323-4396-8D33-FBC5B20552E4}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
